--- a/chatbot/conversation Data.xlsx
+++ b/chatbot/conversation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMJUNSEOP\Desktop\chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMJUNSEOP\YouthPick\Youth-Pick\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956025F-7E67-46B7-B17A-E8C8D5435445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3912C-43B8-4784-93AD-F27F1EA6B011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1860" windowWidth="28770" windowHeight="13740" xr2:uid="{34E90A31-02D0-4D60-BE34-8CAE72DCA3BE}"/>
+    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13740" xr2:uid="{34E90A31-02D0-4D60-BE34-8CAE72DCA3BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="306">
   <si>
     <t>주민등록등본 어떻게 때나요</t>
   </si>
@@ -96,27 +96,865 @@
   </si>
   <si>
     <t>Document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정부 24 주민등록표등본(초본)교부 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?CappBizCD=13100000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망두배 청년 통장 문의 드립니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망두배통장 신청 어떻게 하나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망두배통장 신청방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망두배 청년 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호등본 사본</t>
+  </si>
+  <si>
+    <t>주민등록등본 때는 법</t>
+  </si>
+  <si>
+    <t>주민등록등본 발급</t>
+  </si>
+  <si>
+    <t>임대차계약서</t>
+  </si>
+  <si>
+    <t>인터넷등기소 홈페이지 -&gt; 확정일자 -&gt; 신청하기 (발급링크) -&gt; http://www.iros.go.kr/PMainJ.jsp</t>
+  </si>
+  <si>
+    <t>임대차계약서 사본</t>
+  </si>
+  <si>
+    <t>임대차계약서 때는 법</t>
+  </si>
+  <si>
+    <t>임대차계약서 발급 방법</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임대차계약서 발급 </t>
+  </si>
+  <si>
+    <t>중개보수 지출 증빙서류</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 2. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>중개보수 지출</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 3. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>중개보수 지출 증빙</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 4. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>이사비 지출 증빙 서류</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 5. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이사비 지출 증빙 </t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 6. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>이사비</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 7. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>이사비 지출</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 8. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>이사비용</t>
+  </si>
+  <si>
+    <t>1. 영수증인 경우 : 이사비용 및 중개보수 납부영수증(카드 영수증, 현금영수증, 세금계산서 등 * 간이영수증 불인정 9. - 계좌이체인 경우 : 계좌이체내역, 이사업체, 공인중개사 사업자등록증 또는 명함 등 이사비 및 중개보수 지출 증빙서류 * 이사 및 중개보수에 소요된 비용임을 객관적으로 증빙할 수 있어야 함 * 중개보수 지출 증빙서류는 중개보수 기재되어 있는 임대차 계약서 사본으로 제출가능</t>
+  </si>
+  <si>
+    <t>통장사본</t>
+  </si>
+  <si>
+    <t>원하는 통장 은행의 홈페이지에서 증명서 출력하기 -&gt;</t>
+  </si>
+  <si>
+    <t>통장사본 발급</t>
+  </si>
+  <si>
+    <t>통장사본 출력</t>
+  </si>
+  <si>
+    <t>주민등록초본</t>
+  </si>
+  <si>
+    <t>주민등록초본 발급</t>
+  </si>
+  <si>
+    <t>주민등록초본 어떻게 때나요</t>
+  </si>
+  <si>
+    <t>주민등록초본 어떻게</t>
+  </si>
+  <si>
+    <t>지방세 세목별 미과세 증명서</t>
+  </si>
+  <si>
+    <t>정부 24 지방세 세목별 과세증명 민원 신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?CappBizCD=13100000084</t>
+  </si>
+  <si>
+    <t>지방세 세목별 미과세 증명</t>
+  </si>
+  <si>
+    <t>지방세 미과세 증명서</t>
+  </si>
+  <si>
+    <t>지방세 미과세 증명서 발급</t>
+  </si>
+  <si>
+    <t>지방세 증명서 발급</t>
+  </si>
+  <si>
+    <t>미과세 증명서 발급</t>
+  </si>
+  <si>
+    <t>소득증빙서류</t>
+  </si>
+  <si>
+    <t>정부 24 소득금액증명 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=12100000021</t>
+  </si>
+  <si>
+    <t>소득증빙서류 발급</t>
+  </si>
+  <si>
+    <t>소득증빙서류 발급방법</t>
+  </si>
+  <si>
+    <t>소득증빙</t>
+  </si>
+  <si>
+    <t>소득증빙서류 뽑기</t>
+  </si>
+  <si>
+    <t>졸업증명서</t>
+  </si>
+  <si>
+    <t>정부 24 대학교 졸업(예정) 증명 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=13404000009</t>
+  </si>
+  <si>
+    <t>졸업증명서 발급</t>
+  </si>
+  <si>
+    <t>졸업증명서 발급방법</t>
+  </si>
+  <si>
+    <t>졸업증명서 어디서</t>
+  </si>
+  <si>
+    <t>재학증명서</t>
+  </si>
+  <si>
+    <t>정부 24 대학교 재학 증명 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=13404000010</t>
+  </si>
+  <si>
+    <t>재학증명서 발급</t>
+  </si>
+  <si>
+    <t>재학증명서 발급방법</t>
+  </si>
+  <si>
+    <t>재학증명서 어디서</t>
+  </si>
+  <si>
+    <t>중소기업 확인서 사본</t>
+  </si>
+  <si>
+    <t>중소벤처 24 중소기업(소상공인)확인서 (발급링크) -&gt; https://www.smes.go.kr/pageApplyCertificateSme</t>
+  </si>
+  <si>
+    <t>중소기업 확인서</t>
+  </si>
+  <si>
+    <t>중소벤처 25 중소기업(소상공인)확인서 (발급링크) -&gt; https://www.smes.go.kr/pageApplyCertificateSme</t>
+  </si>
+  <si>
+    <t>중소기업 확인서 발급</t>
+  </si>
+  <si>
+    <t>중소벤처 26 중소기업(소상공인)확인서 (발급링크) -&gt; https://www.smes.go.kr/pageApplyCertificateSme</t>
+  </si>
+  <si>
+    <t>중소기업 확인서 발급방법</t>
+  </si>
+  <si>
+    <t>중소벤처 27 중소기업(소상공인)확인서 (발급링크) -&gt; https://www.smes.go.kr/pageApplyCertificateSme</t>
+  </si>
+  <si>
+    <t>공공기관 인증서</t>
+  </si>
+  <si>
+    <t>행정전사서명 홈페이지 인증서 신청 (발급링크) -&gt; https://gcert.gpki.go.kr/jsp/certInfo/step/issue/searchIssue.jsp</t>
+  </si>
+  <si>
+    <t>공공기관 인증서 발급</t>
+  </si>
+  <si>
+    <t>공공기관 확인서 발급</t>
+  </si>
+  <si>
+    <t>공공기관 확인서</t>
+  </si>
+  <si>
+    <t>사업자등록증 사본</t>
+  </si>
+  <si>
+    <t>정부 24 사업자등록증명 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=12100000016</t>
+  </si>
+  <si>
+    <t>사업자등록증</t>
+  </si>
+  <si>
+    <t>사업자등록증 발급</t>
+  </si>
+  <si>
+    <t>사업자등록증 발급방법</t>
+  </si>
+  <si>
+    <t>법인등기부등본</t>
+  </si>
+  <si>
+    <t>대한민국 법원 인터넷 등기소 법인 열람 후 발급 (발급링크) -&gt; https://www.iros.go.kr/pos1/jsp/help2/jsp/001002004001.jsp</t>
+  </si>
+  <si>
+    <t>법인등기부등본 발급</t>
+  </si>
+  <si>
+    <t>대한민국 법원 인터넷 등기소 법인 열람 후 발급 (발급링크) -&gt; https://www.iros.go.kr/pos1/jsp/help2/jsp/001002004002.jsp</t>
+  </si>
+  <si>
+    <t>법인등기부등본 발급방법</t>
+  </si>
+  <si>
+    <t>대한민국 법원 인터넷 등기소 법인 열람 후 발급 (발급링크) -&gt; https://www.iros.go.kr/pos1/jsp/help2/jsp/001002004003.jsp</t>
+  </si>
+  <si>
+    <t>법인등기부</t>
+  </si>
+  <si>
+    <t>대한민국 법원 인터넷 등기소 법인 열람 후 발급 (발급링크) -&gt; https://www.iros.go.kr/pos1/jsp/help2/jsp/001002004004.jsp</t>
+  </si>
+  <si>
+    <t>국세.지방세 완납증명서</t>
+  </si>
+  <si>
+    <t>정부24 지방세 납세증명 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?CappBizCD=13100000056</t>
+  </si>
+  <si>
+    <t>국세 완납 증명서</t>
+  </si>
+  <si>
+    <t>지방세 완납증명서</t>
+  </si>
+  <si>
+    <t>완납증명서 발급</t>
+  </si>
+  <si>
+    <t>고용보험 사업장 취득자 명부</t>
+  </si>
+  <si>
+    <t>고용산재보험 토탈 서비스 홈페이지에서 고용산재보험 사업장 취득자 명부신청 클릭 후 신청 (발급링크) -&gt; https://total.comwel.or.kr</t>
+  </si>
+  <si>
+    <t>고용보험 사업장 취득자</t>
+  </si>
+  <si>
+    <t>고용보홈 사업장 취득자 명부 확인</t>
+  </si>
+  <si>
+    <t>고용보험 사업장 취득자 명부 발급</t>
+  </si>
+  <si>
+    <t>근로계약서</t>
+  </si>
+  <si>
+    <t>필수 기재 사항 1. 임금의 구성항목(급여,상여금,수당 등) 2. 임금 지급방법 3. 임금 계산방법 4. 소정근로시간 5. 주휴일과 공휴적용휴일 6. 연차 유급휴가</t>
+  </si>
+  <si>
+    <t>근로계약서 발급</t>
+  </si>
+  <si>
+    <t>필수 기재 사항 1. 임금의 구성항목(급여,상여금,수당 등) 2. 임금 지급방법 3. 임금 계산방법 4. 소정근로시간 5. 주휴일과 공휴적용휴일 7. 연차 유급휴가</t>
+  </si>
+  <si>
+    <t>근로계약서 발급방법</t>
+  </si>
+  <si>
+    <t>필수 기재 사항 1. 임금의 구성항목(급여,상여금,수당 등) 2. 임금 지급방법 3. 임금 계산방법 4. 소정근로시간 5. 주휴일과 공휴적용휴일 8. 연차 유급휴가</t>
+  </si>
+  <si>
+    <t>근로계약서 어디서</t>
+  </si>
+  <si>
+    <t>필수 기재 사항 1. 임금의 구성항목(급여,상여금,수당 등) 2. 임금 지급방법 3. 임금 계산방법 4. 소정근로시간 5. 주휴일과 공휴적용휴일 9. 연차 유급휴가</t>
+  </si>
+  <si>
+    <t>근로계약서 어떻게</t>
+  </si>
+  <si>
+    <t>필수 기재 사항 1. 임금의 구성항목(급여,상여금,수당 등) 2. 임금 지급방법 3. 임금 계산방법 4. 소정근로시간 5. 주휴일과 공휴적용휴일 10. 연차 유급휴가</t>
+  </si>
+  <si>
+    <t>4대 보험 가입자 명부</t>
+  </si>
+  <si>
+    <t>4대사회 보험 정보연계센터 접속 후  증명서 발급 -&gt; 가입자 명부 클릭 -&gt; 순서에 따라 진행 (발급링크) -&gt; https://www.4insure.or.kr/ins4/ptl/Main.do</t>
+  </si>
+  <si>
+    <t>4대 보험 가입자 명부 발급</t>
+  </si>
+  <si>
+    <t>4대사회 보험 정보연계센터 접속 후  증명서 발급 -&gt; 가입자 명부 클릭 -&gt; 순서에 따라 진행 (발급링크) -&gt; https://www.4insure.or.kr/ins5/ptl/Main.do</t>
+  </si>
+  <si>
+    <t>4대 보험 가입자</t>
+  </si>
+  <si>
+    <t>4대사회 보험 정보연계센터 접속 후  증명서 발급 -&gt; 가입자 명부 클릭 -&gt; 순서에 따라 진행 (발급링크) -&gt; https://www.4insure.or.kr/ins6/ptl/Main.do</t>
+  </si>
+  <si>
+    <t>4대 보험 가입자 명부 발급 방법</t>
+  </si>
+  <si>
+    <t>4대사회 보험 정보연계센터 접속 후  증명서 발급 -&gt; 가입자 명부 클릭 -&gt; 순서에 따라 진행 (발급링크) -&gt; https://www.4insure.or.kr/ins7/ptl/Main.do</t>
+  </si>
+  <si>
+    <t>봉사실적 확인서</t>
+  </si>
+  <si>
+    <t>1365 자원봉사 포털 로그인 후 확인서 발급 조회 (발급링크) -&gt; https://www.1365.go.kr/vols/P9330/srvcgud/cnfrmnIssu.do</t>
+  </si>
+  <si>
+    <t>봉사실적 확인서 발급</t>
+  </si>
+  <si>
+    <t>1366 자원봉사 포털 로그인 후 확인서 발급 조회 (발급링크) -&gt; https://www.1365.go.kr/vols/P9330/srvcgud/cnfrmnIssu.do</t>
+  </si>
+  <si>
+    <t>봉사실적 확인서 발급 방법</t>
+  </si>
+  <si>
+    <t>1367 자원봉사 포털 로그인 후 확인서 발급 조회 (발급링크) -&gt; https://www.1365.go.kr/vols/P9330/srvcgud/cnfrmnIssu.do</t>
+  </si>
+  <si>
+    <t>봉사실적 확인</t>
+  </si>
+  <si>
+    <t>1368 자원봉사 포털 로그인 후 확인서 발급 조회 (발급링크) -&gt; https://www.1365.go.kr/vols/P9330/srvcgud/cnfrmnIssu.do</t>
+  </si>
+  <si>
+    <t>국민기초생활수급자 증명서</t>
+  </si>
+  <si>
+    <t>정부24 국민기초생활수급자 증명서 발급 민원신청_x000D_
+(발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=14600000280</t>
+  </si>
+  <si>
+    <t>국민기초생활수급자 확인</t>
+  </si>
+  <si>
+    <t>정부24 국민기초생활수급자 증명서 발급 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=14600000280</t>
+  </si>
+  <si>
+    <t>국민기초생활수급자 증명서 발급</t>
+  </si>
+  <si>
+    <t>국민기초생활수급자 증명서 발급 방법</t>
+  </si>
+  <si>
+    <t>국민기초생활수급자 확인서</t>
+  </si>
+  <si>
+    <t>장애인증명서</t>
+  </si>
+  <si>
+    <t>정부24 장애인증명서 발급 민원신청 (발급링크) -&gt; https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=14600000273</t>
+  </si>
+  <si>
+    <t>장애인증명서 확인</t>
+  </si>
+  <si>
+    <t>장애인증명서 확인서</t>
+  </si>
+  <si>
+    <t>장애인증명서 발급</t>
+  </si>
+  <si>
+    <t>전세보증급반환보증</t>
+  </si>
+  <si>
+    <t>주택도시보증공사 홈페이지 전세보증급반환보증 신청 (발급링크) -&gt; https://www.khug.or.kr/hug/web/ig/dr/igdr000001.jsp</t>
+  </si>
+  <si>
+    <t>전세보증급반환보증 발급</t>
+  </si>
+  <si>
+    <t>주택도시보증공사 홈페이지 전세보증급반환보증 신청 (발급링크) -&gt; https://www.khug.or.kr/hug/web/ig/dr/igdr000002.jsp</t>
+  </si>
+  <si>
+    <t>전세보증급반환보증 발급방법</t>
+  </si>
+  <si>
+    <t>주택도시보증공사 홈페이지 전세보증급반환보증 신청 (발급링크) -&gt; https://www.khug.or.kr/hug/web/ig/dr/igdr000003.jsp</t>
+  </si>
+  <si>
+    <t>전세보증급반환보증 확인</t>
+  </si>
+  <si>
+    <t>주택도시보증공사 홈페이지 전세보증급반환보증 신청 (발급링크) -&gt; https://www.khug.or.kr/hug/web/ig/dr/igdr000004.jsp</t>
+  </si>
+  <si>
+    <t>전세보증급반환보증 확인 방법</t>
+  </si>
+  <si>
+    <t>주택도시보증공사 홈페이지 전세보증급반환보증 신청 (발급링크) -&gt; https://www.khug.or.kr/hug/web/ig/dr/igdr000005.jsp</t>
+  </si>
+  <si>
+    <t>보증료 납부 증빙서류</t>
+  </si>
+  <si>
+    <t>1. 전세계약서상 임대인 영수날인 2. 임대인 또는 공인중개사가 발행한 영수증 3. 무통장입금증 4. 계좌이체내역</t>
+  </si>
+  <si>
+    <t>보증료 납부 증빙서류 발급</t>
+  </si>
+  <si>
+    <t>1. 전세계약서상 임대인 영수날인 2. 임대인 또는 공인중개사가 발행한 영수증 3. 무통장입금증 5. 계좌이체내역</t>
+  </si>
+  <si>
+    <t>보증료 납부 증빙서류 발급방법</t>
+  </si>
+  <si>
+    <t>1. 전세계약서상 임대인 영수날인 2. 임대인 또는 공인중개사가 발행한 영수증 3. 무통장입금증 6. 계좌이체내역</t>
+  </si>
+  <si>
+    <t>보증료 납부 증빙서류 확인</t>
+  </si>
+  <si>
+    <t>1. 전세계약서상 임대인 영수날인 2. 임대인 또는 공인중개사가 발행한 영수증 3. 무통장입금증 7. 계좌이체내역</t>
+  </si>
+  <si>
+    <t>보증료 납부 증빙서류 확인 방법</t>
+  </si>
+  <si>
+    <t>1. 전세계약서상 임대인 영수날인 2. 임대인 또는 공인중개사가 발행한 영수증 3. 무통장입금증 8. 계좌이체내역</t>
+  </si>
+  <si>
+    <t>가족관계증명서</t>
+  </si>
+  <si>
+    <t>정부 24 가족관계등록부 등의 증명서 교부 신청 민원신청 (발급링크) -&gt; https://www.gov.kr/main?a=AA020InfoCappViewApp&amp;CappBizCD=97400000004</t>
+  </si>
+  <si>
+    <t>가족관계증명서 발급</t>
+  </si>
+  <si>
+    <t>가족관계증명서 발급 방법</t>
+  </si>
+  <si>
+    <t>가족관계증명서 확인</t>
+  </si>
+  <si>
+    <t>혼인관계증명서</t>
+  </si>
+  <si>
+    <t>대한민국 법원 가족관계등록부 신청인 정보 조회 (발급링크) -&gt; https://efamily.scourt.go.kr/pt/PtFrrpApplrInfoInqW.do?menuFg=04</t>
+  </si>
+  <si>
+    <t>혼인관계증명서 발급</t>
+  </si>
+  <si>
+    <t>대한민국 법원 가족관계등록부 신청인 정보 조회 (발급링크) -&gt; https://efamily.scourt.go.kr/pt/PtFrrpApplrInfoInqW.do?menuFg=05</t>
+  </si>
+  <si>
+    <t>혼인관계증명서 발급 방법</t>
+  </si>
+  <si>
+    <t>대한민국 법원 가족관계등록부 신청인 정보 조회 (발급링크) -&gt; https://efamily.scourt.go.kr/pt/PtFrrpApplrInfoInqW.do?menuFg=06</t>
+  </si>
+  <si>
+    <t>혼인관계증명서 확인</t>
+  </si>
+  <si>
+    <t>대한민국 법원 가족관계등록부 신청인 정보 조회 (발급링크) -&gt; https://efamily.scourt.go.kr/pt/PtFrrpApplrInfoInqW.do?menuFg=07</t>
+  </si>
+  <si>
+    <t>서울희망 대학 진로 장학금 발급</t>
+  </si>
+  <si>
+    <t>서울희망 대학 진로 장학금 확인</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서울희망 대학 진로 장학금 발급방법</t>
+  </si>
+  <si>
+    <t>서울청년정책네트워크</t>
+  </si>
+  <si>
+    <t>온라인 신청 접수 (신청링크) -&gt; https://youth.seoul.go.kr/site/youthnet/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서울청년정책네트워크 신청</t>
+  </si>
+  <si>
+    <t>서울청년정책네트워크 신청 방법</t>
+  </si>
+  <si>
+    <t>서울청년정책네트워크 링크</t>
+  </si>
+  <si>
+    <t>천호사거리 지하 청년 문화공간 조성 신청</t>
+  </si>
+  <si>
+    <t>천호사거리 지하 청년 문화공간 조성 발급</t>
+  </si>
+  <si>
+    <t>천호사거리 지하 청년 문화공간 조성 신청 방법</t>
+  </si>
+  <si>
+    <t>서울시 청년부상제대군인지원사업 신청</t>
+  </si>
+  <si>
+    <t>서울시 청년부상제대군인지원사업 신청방법</t>
+  </si>
+  <si>
+    <t>서울시 청년부상제대군인지원사업 확인</t>
+  </si>
+  <si>
+    <t>청년취업사관학교 조성 및 운영</t>
+  </si>
+  <si>
+    <t>홈페이지에서 교육과정별 신청 및 자기소개서 제출 (신청링크) -&gt; https://sesac.seoul.kr/</t>
+  </si>
+  <si>
+    <t>청년취업사관학교 조성 및 운영 신청</t>
+  </si>
+  <si>
+    <t>청년취업사관학교 조성 및 운영 신청방법</t>
+  </si>
+  <si>
+    <t>청년취업사관학교 조성 및 운영 확인</t>
+  </si>
+  <si>
+    <t>청년예술청 운영</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; http://www.sapy.kr/</t>
+  </si>
+  <si>
+    <t>청년예술청 운영 신청</t>
+  </si>
+  <si>
+    <t>청년예술청 운영란</t>
+  </si>
+  <si>
+    <t>청년예술청 운영 확인</t>
+  </si>
+  <si>
+    <t>청년 대중교통비 지원 사업</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/content/transportationfee_intro</t>
+  </si>
+  <si>
+    <t>청년 대중교통비 지원 사업 신청</t>
+  </si>
+  <si>
+    <t>청년 대중교통비 지원 사업 신청 방법</t>
+  </si>
+  <si>
+    <t>청년 대중교통비 지원 사업 확인</t>
+  </si>
+  <si>
+    <t>지역별 서울청년센터 설치 운영</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; - https://docs.google.com/forms/d/e/1FAIpQLSfN0uhl4Vyh3TP8EESpKvZod7jjCU1oSEBhBYBTlxkHN9Dj9w/viewform</t>
+  </si>
+  <si>
+    <t>지역별 서울청년센터 설치 운영 신청 방법</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; - https://docs.google.com/forms/d/e/1FAIpQLSfN0uhl4Vyh3TP8EESpKvZod7jjCU1oSEBhBYBTlxkHN9Dj10w/viewform</t>
+  </si>
+  <si>
+    <t>지역별 서울청년센터 설치 운영 신청</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; - https://docs.google.com/forms/d/e/1FAIpQLSfN0uhl4Vyh3TP8EESpKvZod7jjCU1oSEBhBYBTlxkHN9Dj11w/viewform</t>
+  </si>
+  <si>
+    <t>지역별 서울청년센터 설치 운영이란</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; - https://docs.google.com/forms/d/e/1FAIpQLSfN0uhl4Vyh3TP8EESpKvZod7jjCU1oSEBhBYBTlxkHN9Dj12w/viewform</t>
+  </si>
+  <si>
+    <t>지역별 서울청년센터 설치 운영 어디서</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; - https://docs.google.com/forms/d/e/1FAIpQLSfN0uhl4Vyh3TP8EESpKvZod7jjCU1oSEBhBYBTlxkHN9Dj13w/viewform</t>
+  </si>
+  <si>
+    <t>청년 쿡비즈니스센터 설치 운영</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34893?cp=1&amp;pageSize=15&amp;sortOrder=BA_REGDATE&amp;sortDirection=DESC&amp;bcId=notice&amp;baCategory1=basic&amp;baNotice=false&amp;baCommSelec=true&amp;baOpenDay=true&amp;baUse=true</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34893?cp=1&amp;pageSize=15&amp;sortOrder=BA_REGDATE&amp;sortDirection=DESC&amp;bcId=notice&amp;baCategory2=basic&amp;baNotice=false&amp;baCommSelec=true&amp;baOpenDay=true&amp;baUse=true</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34893?cp=1&amp;pageSize=15&amp;sortOrder=BA_REGDATE&amp;sortDirection=DESC&amp;bcId=notice&amp;baCategory3=basic&amp;baNotice=false&amp;baCommSelec=true&amp;baOpenDay=true&amp;baUse=true</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34893?cp=1&amp;pageSize=15&amp;sortOrder=BA_REGDATE&amp;sortDirection=DESC&amp;bcId=notice&amp;baCategory4=basic&amp;baNotice=false&amp;baCommSelec=true&amp;baOpenDay=true&amp;baUse=true</t>
+  </si>
+  <si>
+    <t>미래 청년 일자리</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34781?baCategory1=basic&amp;baCommSelec=true</t>
+  </si>
+  <si>
+    <t>미래 청년 일자리 신청</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34781?baCategory2=basic&amp;baCommSelec=true</t>
+  </si>
+  <si>
+    <t>미래 청년 일자리 신청방법</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34781?baCategory3=basic&amp;baCommSelec=true</t>
+  </si>
+  <si>
+    <t>미래 청년 일자리 확인</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/board/notice/34781?baCategory4=basic&amp;baCommSelec=true</t>
+  </si>
+  <si>
+    <t>서울미래 육성 및 활동 지원 신청</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://youth.seoul.go.kr/site/main/content/hr_reg</t>
+  </si>
+  <si>
+    <t>서울미래 육성 및 활동 지원 신청방법</t>
+  </si>
+  <si>
+    <t>서울미래 육성 및 활동 지원 이란</t>
+  </si>
+  <si>
+    <t>서울미래 육성 및 활동 지원 어떻게</t>
+  </si>
+  <si>
+    <t>서울미래 육성 및 활동 지원어디서</t>
+  </si>
+  <si>
+    <t>서울형 뉴딜 일자리 신청</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt; https://job.seoul.go.kr/www/newdeal/jbhnt_mngr/newDealJbhntMngrWww.do?method=getNewDealMain</t>
+  </si>
+  <si>
+    <t>서울형 뉴딜 일자리 신청방법</t>
+  </si>
+  <si>
+    <t>서울형 뉴딜 일자리이란</t>
+  </si>
+  <si>
+    <t>서울형 뉴딜 일자리 어떻게</t>
+  </si>
+  <si>
+    <t>독립유공자 후손 장학금</t>
+  </si>
+  <si>
+    <t>서울장학재단 홈페이지 신청 후 우편 서류 제출 (신청링크) -&gt; https://www.hissf.or.kr</t>
+  </si>
+  <si>
+    <t>독립유공자 후손 장학금 신청</t>
+  </si>
+  <si>
+    <t>독립유공자 후손 장학금 신청방법</t>
+  </si>
+  <si>
+    <t>독립유공자 후손 장학금이란</t>
+  </si>
+  <si>
+    <t>독립유공자 후손 장학금 어떻게</t>
+  </si>
+  <si>
+    <t>서울우수인재 장학금 신청</t>
+  </si>
+  <si>
+    <t>서울우수인재 장학금</t>
+  </si>
+  <si>
+    <t>서울우수인재 장학금 신청방법</t>
+  </si>
+  <si>
+    <t>서울우수인재 장학금 이란</t>
+  </si>
+  <si>
+    <t>서울희망 공익인재 장학금</t>
+  </si>
+  <si>
+    <t>서울희망 공익인재 장학금 신청</t>
+  </si>
+  <si>
+    <t>서울희망 공익인재 장학금 신청방법</t>
+  </si>
+  <si>
+    <t>서울희망 공익인재 장학금이란</t>
+  </si>
+  <si>
+    <t>서울희망키움통장</t>
+  </si>
+  <si>
+    <t>주민등록상 동주민센터 (가입문의) (신청링크) -&gt; https://wis.seoul.go.kr/main.do</t>
+  </si>
+  <si>
+    <t>서울희망키움통장 신청</t>
+  </si>
+  <si>
+    <t>서울희망키움통장 신청방법</t>
+  </si>
+  <si>
+    <t>청년저축계좌</t>
+  </si>
+  <si>
+    <t>청년저축계좌 신청</t>
+  </si>
+  <si>
+    <t>청년저축계좌 신청방법</t>
+  </si>
+  <si>
+    <t>청년저축계좌이란</t>
+  </si>
+  <si>
+    <t>넥스트 로컬</t>
+  </si>
+  <si>
+    <t>지역연계형 청년창업</t>
+  </si>
+  <si>
+    <t>지원사업</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노량진 청년 일자리 </t>
+  </si>
+  <si>
+    <t>청년 일자리 센터</t>
+  </si>
+  <si>
+    <t>청년 일자리</t>
+  </si>
+  <si>
+    <t>혁신을 통한 청년희망</t>
+  </si>
+  <si>
+    <t>희망두배 청년 통장</t>
+  </si>
+  <si>
+    <t>청년 통장</t>
+  </si>
+  <si>
+    <t>희망두배 통장</t>
+  </si>
+  <si>
+    <t>두배 통장</t>
+  </si>
+  <si>
+    <t>(신청링크) -&gt;https://youth.seoul.go.kr/site/main/content/hr_reg</t>
+  </si>
+  <si>
+    <t>서울미래인재 육성 및 활동 지원</t>
+  </si>
+  <si>
+    <t>서울장학재단 홈페이지 신청 후 우편 서류 제출 https://www.hissf.or.kr</t>
+  </si>
+  <si>
+    <t>청년저출계좌</t>
+  </si>
+  <si>
+    <t>https://wis.seoul.go.kr/main.do 주민등록상 동주민센터 (가입문의)</t>
+  </si>
+  <si>
+    <t>자립준비청년지원</t>
+  </si>
+  <si>
+    <t>자립준비청년지원 신청방법 : 자립수당 신청서, 금융교육이수증, 보호종료 확인서 https://news.seoul.go.kr/welfare/archives/511982</t>
+  </si>
+  <si>
+    <t>-http://www.seoulnextlocal.co.kr/ (공고마다 다름)</t>
+  </si>
+  <si>
+    <t>노량진 청년 일자리센터 운영</t>
+  </si>
+  <si>
+    <t>http://youthjob.dongjak.go.kr/</t>
+  </si>
+  <si>
+    <t>https://campustown.seoul.go.kr/site/main/university/list\</t>
+  </si>
+  <si>
+    <t>희망두배 청년통장</t>
+  </si>
+  <si>
+    <t>https://account.welfare.seoul.kr/web/contents/noticeMatch.lp?srchAct=view&amp;boardCd=20220520111858993941</t>
+  </si>
+  <si>
+    <t>https://efamily.scourt.go.kr/pt/PtFrrpApplrInfoInqW.do?menuFg=02</t>
+  </si>
+  <si>
+    <t>https://www.1365.go.kr/vols/main.do</t>
+  </si>
+  <si>
+    <t>https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=14600000280</t>
+  </si>
+  <si>
+    <t>https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=14600000273</t>
+  </si>
+  <si>
+    <t>북한이탈주민등록확인서</t>
+  </si>
+  <si>
+    <t>https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=12500000065</t>
+  </si>
+  <si>
+    <t>전세보증급반환보증 가입보증서</t>
+  </si>
+  <si>
+    <t>https://www.khug.or.kr/hug/web/ig/dr/igdr000002.jsp?tabMenu=Y</t>
+  </si>
+  <si>
+    <t>소득금액증명원</t>
+  </si>
+  <si>
+    <t>https://www.gov.kr/mw/AA020InfoCappView.do?HighCtgCD=&amp;CappBizCD=12100000021</t>
+  </si>
+  <si>
+    <t>지방세 세목별 (미)과세증명서</t>
+  </si>
+  <si>
+    <t>https://www.gov.kr/mw/AA020InfoCappView.do?CappBizCD=13100000084</t>
+  </si>
+  <si>
+    <t>https://efamily.scourt.go.kr/index.jsp</t>
   </si>
 </sst>
 </file>
@@ -483,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D744F3-06D3-42BD-BB71-4319B4EFCE16}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,13 +1382,13 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,13 +1396,13 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,13 +1424,13 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -600,13 +1438,13 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -614,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,13 +1466,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -642,13 +1480,13 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -656,13 +1494,13 @@
         <v>19</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -670,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,13 +1522,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -698,13 +1536,13 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,13 +1550,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -726,13 +1564,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -740,13 +1578,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -754,13 +1592,13 @@
         <v>19</v>
       </c>
       <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,13 +1606,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -782,13 +1620,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -796,13 +1634,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,13 +1648,13 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -824,13 +1662,13 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,13 +1676,13 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,13 +1690,13 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,13 +1704,13 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,13 +1718,13 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,13 +1732,2589 @@
         <v>19</v>
       </c>
       <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>186</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>194</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>195</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126">
+        <v>31</v>
+      </c>
+      <c r="C126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
+        <v>200</v>
+      </c>
+      <c r="D127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>202</v>
+      </c>
+      <c r="D129" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>203</v>
+      </c>
+      <c r="D130" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>212</v>
+      </c>
+      <c r="D137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139">
+        <v>34</v>
+      </c>
+      <c r="C139" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
+        <v>217</v>
+      </c>
+      <c r="D140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>34</v>
+      </c>
+      <c r="C141" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142">
+        <v>34</v>
+      </c>
+      <c r="C142" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143">
+        <v>35</v>
+      </c>
+      <c r="C143" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144">
+        <v>35</v>
+      </c>
+      <c r="C144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145">
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>35</v>
+      </c>
+      <c r="C146" t="s">
+        <v>223</v>
+      </c>
+      <c r="D146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>36</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148">
+        <v>36</v>
+      </c>
+      <c r="C148" t="s">
+        <v>230</v>
+      </c>
+      <c r="D148" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>36</v>
+      </c>
+      <c r="C149" t="s">
+        <v>232</v>
+      </c>
+      <c r="D149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150">
+        <v>36</v>
+      </c>
+      <c r="C150" t="s">
+        <v>234</v>
+      </c>
+      <c r="D150" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>37</v>
+      </c>
+      <c r="C151" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152">
+        <v>37</v>
+      </c>
+      <c r="C152" t="s">
+        <v>238</v>
+      </c>
+      <c r="D152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>239</v>
+      </c>
+      <c r="D153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154">
+        <v>37</v>
+      </c>
+      <c r="C154" t="s">
+        <v>240</v>
+      </c>
+      <c r="D154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155">
+        <v>37</v>
+      </c>
+      <c r="C155" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156">
+        <v>38</v>
+      </c>
+      <c r="C156" t="s">
+        <v>242</v>
+      </c>
+      <c r="D156" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157">
+        <v>38</v>
+      </c>
+      <c r="C157" t="s">
+        <v>244</v>
+      </c>
+      <c r="D157" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158">
+        <v>38</v>
+      </c>
+      <c r="C158" t="s">
+        <v>245</v>
+      </c>
+      <c r="D158" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>38</v>
+      </c>
+      <c r="C159" t="s">
+        <v>246</v>
+      </c>
+      <c r="D159" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>39</v>
+      </c>
+      <c r="C160" t="s">
+        <v>247</v>
+      </c>
+      <c r="D160" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>39</v>
+      </c>
+      <c r="C161" t="s">
+        <v>249</v>
+      </c>
+      <c r="D161" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162">
+        <v>39</v>
+      </c>
+      <c r="C162" t="s">
+        <v>250</v>
+      </c>
+      <c r="D162" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163">
+        <v>39</v>
+      </c>
+      <c r="C163" t="s">
+        <v>251</v>
+      </c>
+      <c r="D163" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164">
+        <v>39</v>
+      </c>
+      <c r="C164" t="s">
+        <v>252</v>
+      </c>
+      <c r="D164" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165">
+        <v>40</v>
+      </c>
+      <c r="C165" t="s">
+        <v>253</v>
+      </c>
+      <c r="D165" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166">
+        <v>40</v>
+      </c>
+      <c r="C166" t="s">
+        <v>254</v>
+      </c>
+      <c r="D166" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>40</v>
+      </c>
+      <c r="C167" t="s">
+        <v>255</v>
+      </c>
+      <c r="D167" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168">
+        <v>40</v>
+      </c>
+      <c r="C168" t="s">
+        <v>256</v>
+      </c>
+      <c r="D168" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169">
+        <v>41</v>
+      </c>
+      <c r="C169" t="s">
+        <v>257</v>
+      </c>
+      <c r="D169" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170">
+        <v>41</v>
+      </c>
+      <c r="C170" t="s">
+        <v>258</v>
+      </c>
+      <c r="D170" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171">
+        <v>41</v>
+      </c>
+      <c r="C171" t="s">
+        <v>259</v>
+      </c>
+      <c r="D171" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172">
+        <v>41</v>
+      </c>
+      <c r="C172" t="s">
+        <v>260</v>
+      </c>
+      <c r="D172" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>42</v>
+      </c>
+      <c r="C173" t="s">
+        <v>261</v>
+      </c>
+      <c r="D173" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174">
+        <v>42</v>
+      </c>
+      <c r="C174" t="s">
+        <v>263</v>
+      </c>
+      <c r="D174" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175">
+        <v>42</v>
+      </c>
+      <c r="C175" t="s">
+        <v>264</v>
+      </c>
+      <c r="D175" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>43</v>
+      </c>
+      <c r="C176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177">
+        <v>43</v>
+      </c>
+      <c r="C177" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178">
+        <v>43</v>
+      </c>
+      <c r="C178" t="s">
+        <v>267</v>
+      </c>
+      <c r="D178" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179">
+        <v>43</v>
+      </c>
+      <c r="C179" t="s">
+        <v>268</v>
+      </c>
+      <c r="D179" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180">
+        <v>44</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>44</v>
+      </c>
+      <c r="C181" t="s">
+        <v>269</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182">
+        <v>44</v>
+      </c>
+      <c r="C182" t="s">
+        <v>270</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183">
+        <v>44</v>
+      </c>
+      <c r="C183" t="s">
+        <v>271</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184">
+        <v>45</v>
+      </c>
+      <c r="C184" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185">
+        <v>45</v>
+      </c>
+      <c r="C185" t="s">
+        <v>272</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186">
+        <v>45</v>
+      </c>
+      <c r="C186" t="s">
+        <v>273</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <v>45</v>
+      </c>
+      <c r="C187" t="s">
+        <v>274</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188">
+        <v>46</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189">
+        <v>46</v>
+      </c>
+      <c r="C189" t="s">
+        <v>275</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190">
         <v>47</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C190" t="s">
+        <v>276</v>
+      </c>
+      <c r="D190" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191">
+        <v>47</v>
+      </c>
+      <c r="C191" t="s">
+        <v>277</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192">
+        <v>47</v>
+      </c>
+      <c r="C192" t="s">
+        <v>278</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193">
+        <v>47</v>
+      </c>
+      <c r="C193" t="s">
+        <v>279</v>
+      </c>
+      <c r="D193" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194">
+        <v>48</v>
+      </c>
+      <c r="C194" t="s">
+        <v>281</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195">
+        <v>49</v>
+      </c>
+      <c r="C195" t="s">
+        <v>247</v>
+      </c>
+      <c r="D195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196">
+        <v>50</v>
+      </c>
+      <c r="C196" t="s">
+        <v>254</v>
+      </c>
+      <c r="D196" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197">
+        <v>51</v>
+      </c>
+      <c r="C197" t="s">
+        <v>257</v>
+      </c>
+      <c r="D197" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198">
+        <v>52</v>
+      </c>
+      <c r="C198" t="s">
+        <v>283</v>
+      </c>
+      <c r="D198" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199">
+        <v>53</v>
+      </c>
+      <c r="C199" t="s">
+        <v>261</v>
+      </c>
+      <c r="D199" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200">
+        <v>54</v>
+      </c>
+      <c r="C200" t="s">
+        <v>285</v>
+      </c>
+      <c r="D200" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201">
+        <v>55</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202">
+        <v>56</v>
+      </c>
+      <c r="C202" t="s">
+        <v>288</v>
+      </c>
+      <c r="D202" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203">
+        <v>57</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204">
+        <v>58</v>
+      </c>
+      <c r="C204" t="s">
+        <v>291</v>
+      </c>
+      <c r="D204" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205">
+        <v>59</v>
+      </c>
+      <c r="C205" t="s">
+        <v>171</v>
+      </c>
+      <c r="D205" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206">
+        <v>60</v>
+      </c>
+      <c r="C206" t="s">
+        <v>131</v>
+      </c>
+      <c r="D206" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207">
+        <v>61</v>
+      </c>
+      <c r="C207" t="s">
+        <v>139</v>
+      </c>
+      <c r="D207" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208">
+        <v>62</v>
+      </c>
+      <c r="C208" t="s">
+        <v>146</v>
+      </c>
+      <c r="D208" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209">
+        <v>63</v>
+      </c>
+      <c r="C209" t="s">
+        <v>297</v>
+      </c>
+      <c r="D209" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210">
+        <v>64</v>
+      </c>
+      <c r="C210" t="s">
+        <v>299</v>
+      </c>
+      <c r="D210" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211">
+        <v>65</v>
+      </c>
+      <c r="C211" t="s">
+        <v>301</v>
+      </c>
+      <c r="D211" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212">
+        <v>66</v>
+      </c>
+      <c r="C212" t="s">
+        <v>303</v>
+      </c>
+      <c r="D212" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213">
+        <v>67</v>
+      </c>
+      <c r="C213" t="s">
+        <v>176</v>
+      </c>
+      <c r="D213" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
